--- a/media/excels/4-2per_capita_regional_gross_domestic_product.xlsx
+++ b/media/excels/4-2per_capita_regional_gross_domestic_product.xlsx
@@ -442,7 +442,7 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>2023
- Январь - Июнь</t>
+ Январь - Сентябрь</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
         <v>5284.7</v>
       </c>
       <c r="F2" t="n">
-        <v>2382.1</v>
+        <v>3802.6</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>3901.1</v>
       </c>
       <c r="F3" t="n">
-        <v>1892.9</v>
+        <v>3169.4</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>4428.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1855.3</v>
+        <v>2921.4</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>4788.2</v>
       </c>
       <c r="F5" t="n">
-        <v>2140.7</v>
+        <v>3385.6</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>2860</v>
       </c>
       <c r="F6" t="n">
-        <v>1262.5</v>
+        <v>2041.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         <v>19974.1</v>
       </c>
       <c r="F7" t="n">
-        <v>9563.5</v>
+        <v>13887.1</v>
       </c>
     </row>
     <row r="8">
@@ -591,7 +591,7 @@
         <v>6467.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2747.7</v>
+        <v>4384.9</v>
       </c>
     </row>
     <row r="9">
@@ -613,7 +613,7 @@
         <v>2212.2</v>
       </c>
       <c r="F9" t="n">
-        <v>1057.8</v>
+        <v>1563.2</v>
       </c>
     </row>
     <row r="10">
@@ -629,7 +629,7 @@
         <v>2042.1</v>
       </c>
       <c r="F10" t="n">
-        <v>995.1</v>
+        <v>1728.9</v>
       </c>
     </row>
     <row r="11">
@@ -651,7 +651,7 @@
         <v>6412.9</v>
       </c>
       <c r="F11" t="n">
-        <v>2651.3</v>
+        <v>4509.7</v>
       </c>
     </row>
     <row r="12">
@@ -673,7 +673,7 @@
         <v>5014.7</v>
       </c>
       <c r="F12" t="n">
-        <v>1953.9</v>
+        <v>3261.7</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>2917.9</v>
       </c>
       <c r="F13" t="n">
-        <v>1350</v>
+        <v>2238.4</v>
       </c>
     </row>
     <row r="14">
@@ -717,7 +717,7 @@
         <v>5817.8</v>
       </c>
       <c r="F14" t="n">
-        <v>2596.7</v>
+        <v>4548.8</v>
       </c>
     </row>
     <row r="15">
@@ -739,7 +739,7 @@
         <v>5685.8</v>
       </c>
       <c r="F15" t="n">
-        <v>2298.8</v>
+        <v>3374.5</v>
       </c>
     </row>
     <row r="16">
@@ -761,7 +761,7 @@
         <v>4097.7</v>
       </c>
       <c r="F16" t="n">
-        <v>1557.3</v>
+        <v>2884.7</v>
       </c>
     </row>
     <row r="17">
@@ -783,7 +783,7 @@
         <v>1671.8</v>
       </c>
       <c r="F17" t="n">
-        <v>710.3</v>
+        <v>1268.1</v>
       </c>
     </row>
     <row r="18">
@@ -799,7 +799,7 @@
         <v>7278.4</v>
       </c>
       <c r="F18" t="n">
-        <v>3382.2</v>
+        <v>5537.3</v>
       </c>
     </row>
     <row r="19">
@@ -821,7 +821,7 @@
         <v>5353.8</v>
       </c>
       <c r="F19" t="n">
-        <v>2503.8</v>
+        <v>4283.6</v>
       </c>
     </row>
     <row r="20">
@@ -843,7 +843,7 @@
         <v>8053.9</v>
       </c>
       <c r="F20" t="n">
-        <v>3472.4</v>
+        <v>5673.3</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>8985.6</v>
       </c>
       <c r="F21" t="n">
-        <v>4359.6</v>
+        <v>6673.5</v>
       </c>
     </row>
     <row r="22">
@@ -887,7 +887,7 @@
         <v>2798.4</v>
       </c>
       <c r="F22" t="n">
-        <v>1269.3</v>
+        <v>2033.5</v>
       </c>
     </row>
   </sheetData>
